--- a/src/test/resources/testdata/Logincred.xlsx
+++ b/src/test/resources/testdata/Logincred.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F117A-8E66-4D16-AEB3-D28303BCD8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE95829-9A6C-4FDF-8894-3DB547E8343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3B48DCAD-885E-4B11-B7CA-2F966DCBEE62}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,10 +55,10 @@
     <t>thanks@123</t>
   </si>
   <si>
-    <t>tarun@tripgain.com</t>
-  </si>
-  <si>
-    <t>WXOlqr3282</t>
+    <t>@AM@TGA1$29TN</t>
+  </si>
+  <si>
+    <t>testtraveller98@tripgain.com</t>
   </si>
 </sst>
 </file>
@@ -117,10 +118,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -440,7 +445,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,16 +458,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -484,7 +489,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{788CD6BC-BCB8-42AA-8589-8FD26FCFA670}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{63D446A2-A11F-4CD8-8BDD-3F08310127BA}"/>
+    <hyperlink ref="B1" r:id="rId2" tooltip="mailto:testtraveller98@tripgain.com" display="mailto:testtraveller98@tripgain.com" xr:uid="{C8E915D1-5A7A-4F73-A834-BAF5F03C7CFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata/Logincred.xlsx
+++ b/src/test/resources/testdata/Logincred.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE95829-9A6C-4FDF-8894-3DB547E8343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BB4102-3B44-4CBB-8B5C-E502E2C7EADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3B48DCAD-885E-4B11-B7CA-2F966DCBEE62}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -53,9 +52,6 @@
   </si>
   <si>
     <t>thanks@123</t>
-  </si>
-  <si>
-    <t>@AM@TGA1$29TN</t>
   </si>
   <si>
     <t>testtraveller98@tripgain.com</t>
@@ -444,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33250D5-53B7-40A4-99A3-476FE55E70A1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -459,16 +453,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
